--- a/admin/partials/file.xlsx
+++ b/admin/partials/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>БЛАНК ЗАКУПА №5-06.11.2019</t>
   </si>
@@ -38,49 +38,55 @@
     <t>Примеч</t>
   </si>
   <si>
-    <t>Davidoff</t>
+    <t>Rothmans</t>
+  </si>
+  <si>
+    <t>пач</t>
+  </si>
+  <si>
+    <t>420 тг</t>
+  </si>
+  <si>
+    <t>Жевательные конфеты ROSHEN Бешеная пчелка</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>695 тг</t>
+  </si>
+  <si>
+    <t>Конфеты Яшкино арахис</t>
+  </si>
+  <si>
+    <t>900 тг</t>
+  </si>
+  <si>
+    <t>Паста витаминная</t>
+  </si>
+  <si>
+    <t>пор</t>
+  </si>
+  <si>
+    <t>1350 тг</t>
+  </si>
+  <si>
+    <t>Ручка шариковая</t>
   </si>
   <si>
     <t>шт</t>
   </si>
   <si>
-    <t>495 тг</t>
-  </si>
-  <si>
-    <t>Cушки в ассортименте</t>
-  </si>
-  <si>
-    <t>пач</t>
-  </si>
-  <si>
-    <t>300 тг</t>
-  </si>
-  <si>
-    <t>Camel Blue</t>
-  </si>
-  <si>
-    <t>450 тг</t>
-  </si>
-  <si>
-    <t>Bounty</t>
-  </si>
-  <si>
-    <t>195 тг</t>
-  </si>
-  <si>
-    <t>Аромат сливы</t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>500 тг</t>
-  </si>
-  <si>
-    <t>Бананы</t>
-  </si>
-  <si>
-    <t>160 тг</t>
+    <t>50 тг</t>
+  </si>
+  <si>
+    <t>Сигареты State Line</t>
+  </si>
+  <si>
+    <t>Лагман быстрого приготовления</t>
+  </si>
+  <si>
+    <t>150 тг</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="1" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -472,7 +478,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C9" sqref="C9"/>
@@ -524,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -532,9 +538,7 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
@@ -544,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -552,9 +556,7 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
+      <c r="F10"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
@@ -564,17 +566,15 @@
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
+      <c r="F11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
@@ -584,44 +584,40 @@
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F12"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F13"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -630,17 +626,33 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
